--- a/biology/Botanique/Strelitzia_juncea/Strelitzia_juncea.xlsx
+++ b/biology/Botanique/Strelitzia_juncea/Strelitzia_juncea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Strelitzia juncea, l’Oiseau du paradis à feuilles de jonc, est une espèce de plantes à fleurs monocotylédones de la famille des Strelitziaceae, endémique d'Afrique du Sud[2]. Elle est résistante à la sécheresse, poussant avec parcimonie près d'Uitenhage, Patensie et juste au nord de Port Elizabeth. Elle est en partie menacée par des prélèvements illégaux à des fins horticoles. On pense que cette espèce est l'une des plus résistantes au gel du genre Strelitzia[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strelitzia juncea, l’Oiseau du paradis à feuilles de jonc, est une espèce de plantes à fleurs monocotylédones de la famille des Strelitziaceae, endémique d'Afrique du Sud. Elle est résistante à la sécheresse, poussant avec parcimonie près d'Uitenhage, Patensie et juste au nord de Port Elizabeth. Elle est en partie menacée par des prélèvements illégaux à des fins horticoles. On pense que cette espèce est l'une des plus résistantes au gel du genre Strelitzia[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -511,20 +523,22 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Strelitzia juncea (Ker Gawl.) Link[3].
-Le basionyme de ce taxon est : Strelitzia parvifolia var. juncea Ker Gawl.[3]
-Ce taxon porte en français le noms vernaculaire ou normalisé suivant : oiseau du paradis à feuilles de jonc[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Strelitzia juncea (Ker Gawl.) Link.
+Le basionyme de ce taxon est : Strelitzia parvifolia var. juncea Ker Gawl.
+Ce taxon porte en français le noms vernaculaire ou normalisé suivant : oiseau du paradis à feuilles de jonc.
 Strelitzia juncea a pour synonymes :
-Strelitzia parvifolia var. juncea Ker Gawl.[3]
-Strelitzia principis Andrews ex Spreng.[3]
-Strelitzia principis Andrews[2]
-Strelitzia reginae subsp. juncea (Ker Gawl.) Sm.[3]
-Strelitzia reginae var. juncea (Andrews) H.E.Moore[2]
-Strelitzia reginae var. juncea (Ker Gawl.) H.E.Moore[3]
-Strelitzia teretifolia publ[3]
-Strelitzia teretifolia Barrow ex Steud.[2]</t>
+Strelitzia parvifolia var. juncea Ker Gawl.
+Strelitzia principis Andrews ex Spreng.
+Strelitzia principis Andrews
+Strelitzia reginae subsp. juncea (Ker Gawl.) Sm.
+Strelitzia reginae var. juncea (Andrews) H.E.Moore
+Strelitzia reginae var. juncea (Ker Gawl.) H.E.Moore
+Strelitzia teretifolia publ
+Strelitzia teretifolia Barrow ex Steud.</t>
         </is>
       </c>
     </row>
